--- a/data/trans_bre/P1404-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Edad-trans_bre.xlsx
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.26199803172456</v>
+        <v>-1.253782679301226</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7857609544403352</v>
+        <v>-0.7870866251422373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3095653767611739</v>
+        <v>0.301349720618008</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4918320216342298</v>
+        <v>0.4940100144154229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.363417088788395</v>
+        <v>1.531476743867189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4524727396395771</v>
+        <v>0.4517421508215963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.469990942700113</v>
+        <v>4.20497844046072</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -748,28 +748,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03876240917445566</v>
+        <v>0.05052513660285749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.63794959453846</v>
+        <v>-2.747570664994577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.29882513142251</v>
+        <v>-2.267787698656003</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7248177409394583</v>
+        <v>-0.743636178524984</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2237622661985441</v>
+        <v>-0.1936838013425804</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7981788837649209</v>
+        <v>-0.8240712482858592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7584991331645072</v>
+        <v>-0.7561692900069862</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4695656759645311</v>
+        <v>-0.4405705460511975</v>
       </c>
     </row>
     <row r="9">
@@ -780,28 +780,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.591616919014018</v>
+        <v>2.47898673063772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5203870182032641</v>
+        <v>0.5570879151957381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8004453732162397</v>
+        <v>0.950848709495416</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.635746631033256</v>
+        <v>2.533963859616498</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.228933902037024</v>
+        <v>10.37946039548065</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5631954342915256</v>
+        <v>0.4711673953705875</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6827253357551596</v>
+        <v>1.086051868878623</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.896688040173028</v>
+        <v>6.567890794065946</v>
       </c>
     </row>
     <row r="10">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.986743217504044</v>
+        <v>-2.960223892619421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.175939505028673</v>
+        <v>-4.097744726596439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.228639931110833</v>
+        <v>-4.049756784771308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.745396158053197</v>
+        <v>-5.536558544785845</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5374950815640441</v>
+        <v>-0.5204683164723409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5789097869659426</v>
+        <v>-0.5743972723560843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6859596239955926</v>
+        <v>-0.6757756285592521</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.804941919816781</v>
+        <v>-0.8106505433464298</v>
       </c>
     </row>
     <row r="12">
@@ -880,28 +880,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.392900334060366</v>
+        <v>1.381205315218154</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4392090095683877</v>
+        <v>0.4587350838007371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.06414697131845026</v>
+        <v>0.04738672288669037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.496565691441557</v>
+        <v>-1.320351629233663</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4589640415623312</v>
+        <v>0.4585452954500109</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.137703829730362</v>
+        <v>0.1235076485523858</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07352665040417766</v>
+        <v>0.07685604142765579</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.358137865399835</v>
+        <v>-0.3325621175086685</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>0.5900990577888467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.724967605247216</v>
+        <v>-3.724967605247218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1994968383827332</v>
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.77594545813707</v>
+        <v>-5.659363391607655</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3266856338435035</v>
+        <v>-0.5941610779642141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.969425773757611</v>
+        <v>-2.953653215977265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.375918042901711</v>
+        <v>-6.985168345605464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4675034150777369</v>
+        <v>-0.4689331531384588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03720335993707873</v>
+        <v>-0.0645943369382995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2541304664438265</v>
+        <v>-0.2584748262698224</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4548690055955651</v>
+        <v>-0.4410254262775489</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.485554173721319</v>
+        <v>1.354882065696539</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.091820213035777</v>
+        <v>6.770384119599187</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.957422786205271</v>
+        <v>3.989355564128656</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.5946690153741799</v>
+        <v>-0.2131766034992716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1840553944391534</v>
+        <v>0.1735223464179983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9715454966857782</v>
+        <v>0.8893931601091879</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4617864198125415</v>
+        <v>0.4886355906064765</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05312233491493341</v>
+        <v>-0.0224340856394121</v>
       </c>
     </row>
     <row r="16">
@@ -1025,7 +1025,7 @@
         <v>4.202441576132182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.067731109215204</v>
+        <v>2.067731109215198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1992490195923838</v>
@@ -1037,7 +1037,7 @@
         <v>0.2117996463347289</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0900925416278342</v>
+        <v>0.09009254162783394</v>
       </c>
     </row>
     <row r="17">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.162723718180551</v>
+        <v>-2.138598752643016</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2658191010236961</v>
+        <v>0.4479829453797547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.733676943541925</v>
+        <v>-0.9592481778947124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.182754695733077</v>
+        <v>-2.720738963213846</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1173517766449366</v>
+        <v>-0.1047455799397401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01110602455474899</v>
+        <v>0.01680217556927726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08360107564214941</v>
+        <v>-0.043668234768322</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0866858963378857</v>
+        <v>-0.1076073464263631</v>
       </c>
     </row>
     <row r="18">
@@ -1080,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.211530300109919</v>
+        <v>8.765816834801191</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.02481225981333</v>
+        <v>11.96842773710481</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.847890171180266</v>
+        <v>9.609057922224176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.420808944955728</v>
+        <v>5.839850923777511</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6108587282507258</v>
+        <v>0.5805319248349763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7385848407407826</v>
+        <v>0.7190625679445971</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5730493210571848</v>
+        <v>0.5692200362262858</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3202169754871485</v>
+        <v>0.2845031894290468</v>
       </c>
     </row>
     <row r="19">
@@ -1125,7 +1125,7 @@
         <v>-0.4446623155721807</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.371790944277527</v>
+        <v>5.371790944277516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4307553177523109</v>
@@ -1137,7 +1137,7 @@
         <v>-0.01410691545192919</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1794351470088922</v>
+        <v>0.1794351470088918</v>
       </c>
     </row>
     <row r="20">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.136735721232128</v>
+        <v>1.503691020189358</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.552772915155346</v>
+        <v>-8.612087344630773</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.564899564041977</v>
+        <v>-8.134390575535523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4327110545534199</v>
+        <v>0.2057487150483474</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0904161313492876</v>
+        <v>0.05838271221598407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2131950613833731</v>
+        <v>-0.2148262167378687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2089513330413821</v>
+        <v>-0.2295257779237424</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01412698563467467</v>
+        <v>0.00309759157191831</v>
       </c>
     </row>
     <row r="21">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.04922330647196</v>
+        <v>14.30128363411136</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.995556970475467</v>
+        <v>6.631432687507856</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.677149556524727</v>
+        <v>5.660678050695249</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.1342795326612</v>
+        <v>10.291668648199</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9462220146179541</v>
+        <v>0.867015985253577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2215285311258289</v>
+        <v>0.2116238454779152</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2402931979580055</v>
+        <v>0.1981271057390156</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3873191244581066</v>
+        <v>0.3730981956084523</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
         <v>3.011671411415779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.216213512286755</v>
+        <v>5.21621351228675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2184839286583447</v>
@@ -1237,7 +1237,7 @@
         <v>0.09719584012920289</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1433067316976168</v>
+        <v>0.1433067316976167</v>
       </c>
     </row>
     <row r="23">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.196832587914129</v>
+        <v>-2.924940133316059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.802828039150199</v>
+        <v>-5.489493434218453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.246086432445698</v>
+        <v>-5.195819577507672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8816744783746256</v>
+        <v>-0.5831423855057113</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.123591808496174</v>
+        <v>-0.1185230373596304</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1342649075782435</v>
+        <v>-0.1470322839179785</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1303170435498765</v>
+        <v>-0.152131318183643</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.0212277805297633</v>
+        <v>-0.01609433538722737</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.83484172451775</v>
+        <v>11.8080417905643</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.86008071648335</v>
+        <v>10.79575069721389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.34320574849722</v>
+        <v>9.977663404102602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.50670841476484</v>
+        <v>11.22850956157926</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6768229156933627</v>
+        <v>0.682255051937589</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3831974916587005</v>
+        <v>0.3782923619836154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4279011234863219</v>
+        <v>0.3767755867304968</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3183515778763007</v>
+        <v>0.3420521187077825</v>
       </c>
     </row>
     <row r="25">
@@ -1325,7 +1325,7 @@
         <v>1.786855609829535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.713230194043649</v>
+        <v>1.713230194043647</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2999192547102843</v>
@@ -1337,7 +1337,7 @@
         <v>0.1559989476618705</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1191759236290591</v>
+        <v>0.1191759236290589</v>
       </c>
     </row>
     <row r="26">
@@ -1348,28 +1348,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.072409995092105</v>
+        <v>0.9406526449914743</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7352271573657981</v>
+        <v>0.708966580520787</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1207105084735287</v>
+        <v>0.06035538883768409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3606534850613885</v>
+        <v>0.1955124301857797</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1213083673189235</v>
+        <v>0.1083879776710829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06190355330426407</v>
+        <v>0.05835937242277409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01628145419277445</v>
+        <v>0.003521572623170105</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0238283853141129</v>
+        <v>0.01329151159841917</v>
       </c>
     </row>
     <row r="27">
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.765359978419092</v>
+        <v>3.806988073618496</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.161602871674742</v>
+        <v>4.16412253748025</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.41408127905149</v>
+        <v>3.485060799973408</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.254170718025602</v>
+        <v>3.243230375206389</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5225008895514013</v>
+        <v>0.5284452320035327</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3920268997128977</v>
+        <v>0.3924841857984905</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3189789498193987</v>
+        <v>0.3232507554040313</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2363903338136363</v>
+        <v>0.2443234859808972</v>
       </c>
     </row>
     <row r="28">
